--- a/excel/read.xlsx
+++ b/excel/read.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eros\Downloads\new_task\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eros\Downloads\new_task\Python-Chatbot-With-Science\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A683E04C-5A87-4FA6-85DC-192110C6D056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D549F309-80DC-4998-B9AE-83F668E8BA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E2F71744-5779-434E-9E54-5F2428843AFD}"/>
+    <workbookView xWindow="-20610" yWindow="15" windowWidth="20730" windowHeight="11160" xr2:uid="{E2F71744-5779-434E-9E54-5F2428843AFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1818,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BC0B90D-613A-4C4F-99BB-2320D2709F11}">
   <dimension ref="A1:I262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="I252" sqref="I252"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3043,7 +3043,7 @@
         <v>89</v>
       </c>
       <c r="E80" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
         <v>22</v>
